--- a/TemplateElencoAssenze.xlsx
+++ b/TemplateElencoAssenze.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolacardi/Cartelle/localhost/waldorf/swapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD9E125-FE81-CE44-9622-71E4706CFFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB52F70-CE73-5041-B23B-7EE181033C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="560" windowWidth="25160" windowHeight="14120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11340" yWindow="2220" windowWidth="25160" windowHeight="14120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pagina1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Giulio Salmaso</t>
   </si>
@@ -97,9 +97,6 @@
     <t>Alunno/a</t>
   </si>
   <si>
-    <t>Assente tutto il giorno o parte del giorno</t>
-  </si>
-  <si>
     <t>Presente tutto il giorno</t>
   </si>
   <si>
@@ -111,12 +108,27 @@
   <si>
     <t>Nota: in caso di alunno che per qualche ora sia in DAD e per qualche ora assente viene riportata l'indicazione dell'ultima ora. Assenze e DAD prevalgono sempre sulle presenze.</t>
   </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Uscita durante il giorno</t>
+  </si>
+  <si>
+    <t>Entrata in un'ora successiva alla prima</t>
+  </si>
+  <si>
+    <t>Assente tutte le ore del giorno</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -275,8 +287,13 @@
       <name val="Trebuchet MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Trebuchet MS"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -307,6 +324,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0000FF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9400"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -711,7 +740,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -907,6 +936,15 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -928,13 +966,10 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2200,7 +2235,7 @@
   <dimension ref="A1:AW66"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2215,24 +2250,24 @@
   <sheetData>
     <row r="1" spans="2:46" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="2:46" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
       <c r="H2" s="54" t="s">
         <v>17</v>
       </c>
       <c r="I2" s="55"/>
       <c r="J2" s="55" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="K2" s="55"/>
       <c r="L2" s="55"/>
@@ -2247,8 +2282,12 @@
       <c r="U2" s="55"/>
       <c r="V2" s="55"/>
       <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
+      <c r="X2" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y2" s="55" t="s">
+        <v>26</v>
+      </c>
       <c r="Z2" s="55"/>
       <c r="AA2" s="55"/>
       <c r="AB2" s="55"/>
@@ -2272,18 +2311,18 @@
       <c r="AT2" s="6"/>
     </row>
     <row r="3" spans="2:46" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="69"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="74"/>
       <c r="H3" s="57" t="s">
         <v>18</v>
       </c>
       <c r="I3" s="53"/>
       <c r="J3" s="53" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K3" s="53"/>
       <c r="L3" s="53"/>
@@ -2298,8 +2337,12 @@
       <c r="U3" s="53"/>
       <c r="V3" s="53"/>
       <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
+      <c r="X3" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y3" s="53" t="s">
+        <v>27</v>
+      </c>
       <c r="Z3" s="53"/>
       <c r="AA3" s="53"/>
       <c r="AB3" s="53"/>
@@ -2323,18 +2366,18 @@
       <c r="AT3" s="6"/>
     </row>
     <row r="4" spans="2:46" s="5" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
       <c r="H4" s="66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I4" s="59"/>
       <c r="J4" s="59" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K4" s="59"/>
       <c r="L4" s="59"/>
@@ -2465,13 +2508,13 @@
     </row>
     <row r="7" spans="2:46" s="5" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="7"/>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="76"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="69"/>
       <c r="H7" s="49"/>
       <c r="I7" s="49"/>
       <c r="J7" s="49"/>
@@ -2516,11 +2559,11 @@
       <c r="B8" s="17">
         <v>1</v>
       </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
       <c r="H8" s="51"/>
       <c r="I8" s="51"/>
       <c r="J8" s="51"/>
@@ -2565,11 +2608,11 @@
       <c r="B9" s="17">
         <v>2</v>
       </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
       <c r="H9" s="51"/>
       <c r="I9" s="51"/>
       <c r="J9" s="51"/>
@@ -2614,11 +2657,11 @@
       <c r="B10" s="17">
         <v>3</v>
       </c>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
       <c r="H10" s="51"/>
       <c r="I10" s="51"/>
       <c r="J10" s="51"/>
@@ -2663,11 +2706,11 @@
       <c r="B11" s="17">
         <v>4</v>
       </c>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
       <c r="H11" s="51"/>
       <c r="I11" s="51"/>
       <c r="J11" s="51"/>
@@ -2712,11 +2755,11 @@
       <c r="B12" s="17">
         <v>5</v>
       </c>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
       <c r="H12" s="51"/>
       <c r="I12" s="51"/>
       <c r="J12" s="51"/>
@@ -2761,11 +2804,11 @@
       <c r="B13" s="17">
         <v>6</v>
       </c>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
       <c r="H13" s="51"/>
       <c r="I13" s="51"/>
       <c r="J13" s="51"/>
@@ -2810,11 +2853,11 @@
       <c r="B14" s="17">
         <v>7</v>
       </c>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
       <c r="H14" s="51"/>
       <c r="I14" s="51"/>
       <c r="J14" s="51"/>
@@ -2859,11 +2902,11 @@
       <c r="B15" s="17">
         <v>8</v>
       </c>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
       <c r="H15" s="51"/>
       <c r="I15" s="51"/>
       <c r="J15" s="51"/>
@@ -2908,11 +2951,11 @@
       <c r="B16" s="17">
         <v>9</v>
       </c>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
       <c r="H16" s="51"/>
       <c r="I16" s="51"/>
       <c r="J16" s="51"/>
@@ -2957,11 +3000,11 @@
       <c r="B17" s="17">
         <v>10</v>
       </c>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
       <c r="H17" s="51"/>
       <c r="I17" s="51"/>
       <c r="J17" s="51"/>
@@ -3006,11 +3049,11 @@
       <c r="B18" s="17">
         <v>11</v>
       </c>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
       <c r="H18" s="51"/>
       <c r="I18" s="51"/>
       <c r="J18" s="51"/>
@@ -3055,11 +3098,11 @@
       <c r="B19" s="17">
         <v>12</v>
       </c>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
       <c r="H19" s="51"/>
       <c r="I19" s="51"/>
       <c r="J19" s="51"/>
@@ -3104,11 +3147,11 @@
       <c r="B20" s="17">
         <v>13</v>
       </c>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
       <c r="H20" s="51"/>
       <c r="I20" s="51"/>
       <c r="J20" s="51"/>
@@ -3153,11 +3196,11 @@
       <c r="B21" s="17">
         <v>14</v>
       </c>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
       <c r="H21" s="51"/>
       <c r="I21" s="51"/>
       <c r="J21" s="51"/>
@@ -3202,11 +3245,11 @@
       <c r="B22" s="17">
         <v>15</v>
       </c>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
       <c r="H22" s="51"/>
       <c r="I22" s="51"/>
       <c r="J22" s="51"/>
@@ -3251,11 +3294,11 @@
       <c r="B23" s="17">
         <v>16</v>
       </c>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
       <c r="H23" s="51"/>
       <c r="I23" s="51"/>
       <c r="J23" s="51"/>
@@ -3300,11 +3343,11 @@
       <c r="B24" s="17">
         <v>17</v>
       </c>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
       <c r="H24" s="51"/>
       <c r="I24" s="51"/>
       <c r="J24" s="51"/>
@@ -3349,11 +3392,11 @@
       <c r="B25" s="17">
         <v>18</v>
       </c>
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
       <c r="H25" s="51"/>
       <c r="I25" s="51"/>
       <c r="J25" s="51"/>
@@ -3398,11 +3441,11 @@
       <c r="B26" s="17">
         <v>19</v>
       </c>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
       <c r="H26" s="52"/>
       <c r="I26" s="52"/>
       <c r="J26" s="52"/>
@@ -3447,11 +3490,11 @@
       <c r="B27" s="17">
         <v>20</v>
       </c>
-      <c r="C27" s="74"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
       <c r="H27" s="52"/>
       <c r="I27" s="52"/>
       <c r="J27" s="52"/>
@@ -3496,11 +3539,11 @@
       <c r="B28" s="17">
         <v>21</v>
       </c>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
       <c r="H28" s="52"/>
       <c r="I28" s="52"/>
       <c r="J28" s="52"/>
@@ -3545,11 +3588,11 @@
       <c r="B29" s="17">
         <v>22</v>
       </c>
-      <c r="C29" s="74"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
       <c r="H29" s="52"/>
       <c r="I29" s="52"/>
       <c r="J29" s="52"/>
@@ -3594,11 +3637,11 @@
       <c r="B30" s="17">
         <v>23</v>
       </c>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
       <c r="H30" s="52"/>
       <c r="I30" s="52"/>
       <c r="J30" s="52"/>
@@ -3643,11 +3686,11 @@
       <c r="B31" s="17">
         <v>24</v>
       </c>
-      <c r="C31" s="74"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="74"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
       <c r="H31" s="52"/>
       <c r="I31" s="52"/>
       <c r="J31" s="52"/>
@@ -3692,11 +3735,11 @@
       <c r="B32" s="17">
         <v>25</v>
       </c>
-      <c r="C32" s="74"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
       <c r="H32" s="52"/>
       <c r="I32" s="52"/>
       <c r="J32" s="52"/>
@@ -3741,11 +3784,11 @@
       <c r="B33" s="17">
         <v>26</v>
       </c>
-      <c r="C33" s="74"/>
-      <c r="D33" s="74"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="74"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
       <c r="H33" s="52"/>
       <c r="I33" s="52"/>
       <c r="J33" s="52"/>
@@ -3790,11 +3833,11 @@
       <c r="B34" s="17">
         <v>27</v>
       </c>
-      <c r="C34" s="74"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="74"/>
-      <c r="G34" s="74"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
       <c r="H34" s="52"/>
       <c r="I34" s="52"/>
       <c r="J34" s="52"/>
@@ -3839,11 +3882,11 @@
       <c r="B35" s="17">
         <v>28</v>
       </c>
-      <c r="C35" s="74"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
       <c r="H35" s="51"/>
       <c r="I35" s="51"/>
       <c r="J35" s="51"/>
@@ -4948,22 +4991,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="32">
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C17:G17"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B4:G4"/>
@@ -4980,6 +5007,22 @@
     <mergeCell ref="C24:G24"/>
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C20:G20"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.236220472441" right="0.236220472441" top="0.39370078740199999" bottom="0.39370078740199999" header="0.31496062992099999" footer="0.31496062992099999"/>
